--- a/viettel_ns/Areas/QLVonDauTu/ReportExcelForm/rpt_BaoCao_KHNam_DeXuat_DieuChinh_NguonVonKhac.xlsx
+++ b/viettel_ns/Areas/QLVonDauTu/ReportExcelForm/rpt_BaoCao_KHNam_DeXuat_DieuChinh_NguonVonKhac.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\qlns-ctc-bqp\sourcecode\viettel_ns\Areas\QLVonDauTu\ReportExcelForm\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -691,44 +691,44 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1017,7 +1017,7 @@
   <dimension ref="A1:AH142"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:U5"/>
+      <selection activeCell="N22" sqref="N22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1048,15 +1048,15 @@
   <sheetData>
     <row r="1" spans="1:34" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:34" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="51" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="42"/>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
+      <c r="B2" s="51"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
       <c r="H2" s="13"/>
       <c r="I2" s="13"/>
       <c r="J2" s="13"/>
@@ -1073,15 +1073,15 @@
       <c r="U2" s="10"/>
     </row>
     <row r="3" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="43" t="s">
+      <c r="A3" s="52" t="s">
         <v>100</v>
       </c>
-      <c r="B3" s="43"/>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
-      <c r="G3" s="43"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
       <c r="H3" s="13"/>
       <c r="I3" s="13"/>
       <c r="J3" s="13"/>
@@ -1098,54 +1098,54 @@
       <c r="U3" s="10"/>
     </row>
     <row r="4" spans="1:34" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="49" t="s">
+      <c r="A4" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="49"/>
-      <c r="C4" s="49"/>
-      <c r="D4" s="49"/>
-      <c r="E4" s="49"/>
-      <c r="F4" s="49"/>
-      <c r="G4" s="49"/>
-      <c r="H4" s="49"/>
-      <c r="I4" s="49"/>
-      <c r="J4" s="49"/>
-      <c r="K4" s="49"/>
-      <c r="L4" s="49"/>
-      <c r="M4" s="49"/>
-      <c r="N4" s="49"/>
-      <c r="O4" s="49"/>
-      <c r="P4" s="49"/>
-      <c r="Q4" s="49"/>
-      <c r="R4" s="49"/>
-      <c r="S4" s="49"/>
-      <c r="T4" s="49"/>
-      <c r="U4" s="49"/>
+      <c r="B4" s="48"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="48"/>
+      <c r="H4" s="48"/>
+      <c r="I4" s="48"/>
+      <c r="J4" s="48"/>
+      <c r="K4" s="48"/>
+      <c r="L4" s="48"/>
+      <c r="M4" s="48"/>
+      <c r="N4" s="48"/>
+      <c r="O4" s="48"/>
+      <c r="P4" s="48"/>
+      <c r="Q4" s="48"/>
+      <c r="R4" s="48"/>
+      <c r="S4" s="48"/>
+      <c r="T4" s="48"/>
+      <c r="U4" s="48"/>
     </row>
     <row r="5" spans="1:34" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="48" t="s">
+      <c r="A5" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="48"/>
-      <c r="C5" s="48"/>
-      <c r="D5" s="48"/>
-      <c r="E5" s="48"/>
-      <c r="F5" s="48"/>
-      <c r="G5" s="48"/>
-      <c r="H5" s="48"/>
-      <c r="I5" s="48"/>
-      <c r="J5" s="48"/>
-      <c r="K5" s="48"/>
-      <c r="L5" s="48"/>
-      <c r="M5" s="48"/>
-      <c r="N5" s="48"/>
-      <c r="O5" s="48"/>
-      <c r="P5" s="48"/>
-      <c r="Q5" s="48"/>
-      <c r="R5" s="48"/>
-      <c r="S5" s="48"/>
-      <c r="T5" s="48"/>
-      <c r="U5" s="48"/>
+      <c r="B5" s="47"/>
+      <c r="C5" s="47"/>
+      <c r="D5" s="47"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="47"/>
+      <c r="I5" s="47"/>
+      <c r="J5" s="47"/>
+      <c r="K5" s="47"/>
+      <c r="L5" s="47"/>
+      <c r="M5" s="47"/>
+      <c r="N5" s="47"/>
+      <c r="O5" s="47"/>
+      <c r="P5" s="47"/>
+      <c r="Q5" s="47"/>
+      <c r="R5" s="47"/>
+      <c r="S5" s="47"/>
+      <c r="T5" s="47"/>
+      <c r="U5" s="47"/>
     </row>
     <row r="6" spans="1:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
@@ -1158,72 +1158,72 @@
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
-      <c r="K6" s="46" t="s">
+      <c r="K6" s="54" t="s">
         <v>78</v>
       </c>
-      <c r="L6" s="46"/>
-      <c r="M6" s="46"/>
-      <c r="N6" s="46"/>
-      <c r="O6" s="46"/>
-      <c r="P6" s="46"/>
-      <c r="Q6" s="46"/>
-      <c r="R6" s="46"/>
-      <c r="S6" s="46"/>
-      <c r="T6" s="46"/>
-      <c r="U6" s="46"/>
+      <c r="L6" s="54"/>
+      <c r="M6" s="54"/>
+      <c r="N6" s="54"/>
+      <c r="O6" s="54"/>
+      <c r="P6" s="54"/>
+      <c r="Q6" s="54"/>
+      <c r="R6" s="54"/>
+      <c r="S6" s="54"/>
+      <c r="T6" s="54"/>
+      <c r="U6" s="54"/>
     </row>
     <row r="7" spans="1:34" s="29" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="44" t="s">
+      <c r="A7" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="44" t="s">
+      <c r="B7" s="49" t="s">
         <v>24</v>
       </c>
       <c r="C7" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="44" t="s">
+      <c r="D7" s="49" t="s">
         <v>47</v>
       </c>
-      <c r="E7" s="45" t="s">
+      <c r="E7" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="F7" s="44" t="s">
+      <c r="F7" s="49" t="s">
         <v>48</v>
       </c>
-      <c r="G7" s="44" t="s">
+      <c r="G7" s="49" t="s">
         <v>49</v>
       </c>
-      <c r="H7" s="44" t="s">
+      <c r="H7" s="49" t="s">
         <v>50</v>
       </c>
-      <c r="I7" s="44" t="s">
+      <c r="I7" s="49" t="s">
         <v>51</v>
       </c>
-      <c r="J7" s="44" t="s">
+      <c r="J7" s="49" t="s">
         <v>52</v>
       </c>
-      <c r="K7" s="44"/>
-      <c r="L7" s="44"/>
-      <c r="M7" s="44" t="s">
+      <c r="K7" s="49"/>
+      <c r="L7" s="49"/>
+      <c r="M7" s="49" t="s">
         <v>77</v>
       </c>
-      <c r="N7" s="44" t="s">
+      <c r="N7" s="49" t="s">
         <v>57</v>
       </c>
-      <c r="O7" s="44" t="s">
+      <c r="O7" s="49" t="s">
         <v>67</v>
       </c>
-      <c r="P7" s="44"/>
-      <c r="Q7" s="44" t="s">
+      <c r="P7" s="49"/>
+      <c r="Q7" s="49" t="s">
         <v>65</v>
       </c>
-      <c r="R7" s="44" t="s">
+      <c r="R7" s="49" t="s">
         <v>66</v>
       </c>
-      <c r="S7" s="44"/>
-      <c r="T7" s="44"/>
-      <c r="U7" s="44" t="s">
+      <c r="S7" s="49"/>
+      <c r="T7" s="49"/>
+      <c r="U7" s="49" t="s">
         <v>40</v>
       </c>
       <c r="V7" s="28"/>
@@ -1241,35 +1241,35 @@
       <c r="AH7" s="28"/>
     </row>
     <row r="8" spans="1:34" s="29" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="44"/>
-      <c r="B8" s="44"/>
+      <c r="A8" s="49"/>
+      <c r="B8" s="49"/>
       <c r="C8" s="50"/>
-      <c r="D8" s="44"/>
-      <c r="E8" s="45"/>
-      <c r="F8" s="44"/>
-      <c r="G8" s="44"/>
-      <c r="H8" s="44"/>
-      <c r="I8" s="44"/>
-      <c r="J8" s="44" t="s">
+      <c r="D8" s="49"/>
+      <c r="E8" s="53"/>
+      <c r="F8" s="49"/>
+      <c r="G8" s="49"/>
+      <c r="H8" s="49"/>
+      <c r="I8" s="49"/>
+      <c r="J8" s="49" t="s">
         <v>53</v>
       </c>
-      <c r="K8" s="44" t="s">
+      <c r="K8" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="L8" s="44"/>
-      <c r="M8" s="44"/>
-      <c r="N8" s="44"/>
-      <c r="O8" s="44"/>
-      <c r="P8" s="44"/>
-      <c r="Q8" s="44"/>
-      <c r="R8" s="44" t="s">
+      <c r="L8" s="49"/>
+      <c r="M8" s="49"/>
+      <c r="N8" s="49"/>
+      <c r="O8" s="49"/>
+      <c r="P8" s="49"/>
+      <c r="Q8" s="49"/>
+      <c r="R8" s="49" t="s">
         <v>55</v>
       </c>
-      <c r="S8" s="44" t="s">
+      <c r="S8" s="49" t="s">
         <v>68</v>
       </c>
-      <c r="T8" s="44"/>
-      <c r="U8" s="44"/>
+      <c r="T8" s="49"/>
+      <c r="U8" s="49"/>
       <c r="V8" s="28"/>
       <c r="W8" s="28"/>
       <c r="X8" s="28"/>
@@ -1285,39 +1285,39 @@
       <c r="AH8" s="28"/>
     </row>
     <row r="9" spans="1:34" s="29" customFormat="1" ht="85.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="44"/>
-      <c r="B9" s="44"/>
+      <c r="A9" s="49"/>
+      <c r="B9" s="49"/>
       <c r="C9" s="50"/>
-      <c r="D9" s="44"/>
-      <c r="E9" s="45"/>
-      <c r="F9" s="44"/>
-      <c r="G9" s="44"/>
-      <c r="H9" s="44"/>
-      <c r="I9" s="44"/>
-      <c r="J9" s="44"/>
+      <c r="D9" s="49"/>
+      <c r="E9" s="53"/>
+      <c r="F9" s="49"/>
+      <c r="G9" s="49"/>
+      <c r="H9" s="49"/>
+      <c r="I9" s="49"/>
+      <c r="J9" s="49"/>
       <c r="K9" s="30" t="s">
         <v>55</v>
       </c>
       <c r="L9" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="M9" s="44"/>
-      <c r="N9" s="44"/>
+      <c r="M9" s="49"/>
+      <c r="N9" s="49"/>
       <c r="O9" s="30" t="s">
         <v>55</v>
       </c>
       <c r="P9" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="Q9" s="44"/>
-      <c r="R9" s="44"/>
+      <c r="Q9" s="49"/>
+      <c r="R9" s="49"/>
       <c r="S9" s="30" t="s">
         <v>69</v>
       </c>
       <c r="T9" s="30" t="s">
         <v>70</v>
       </c>
-      <c r="U9" s="44"/>
+      <c r="U9" s="49"/>
       <c r="V9" s="28"/>
       <c r="W9" s="28"/>
       <c r="X9" s="28"/>
@@ -1549,18 +1549,18 @@
     <row r="13" spans="1:34" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="14" spans="1:34" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="15" spans="1:34" s="23" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="47" t="s">
+      <c r="A15" s="46" t="s">
         <v>101</v>
       </c>
-      <c r="B15" s="47"/>
-      <c r="C15" s="47"/>
-      <c r="D15" s="47"/>
-      <c r="E15" s="47"/>
-      <c r="F15" s="47"/>
-      <c r="G15" s="47"/>
-      <c r="H15" s="47"/>
-      <c r="I15" s="47"/>
-      <c r="J15" s="47"/>
+      <c r="B15" s="46"/>
+      <c r="C15" s="46"/>
+      <c r="D15" s="46"/>
+      <c r="E15" s="46"/>
+      <c r="F15" s="46"/>
+      <c r="G15" s="46"/>
+      <c r="H15" s="46"/>
+      <c r="I15" s="46"/>
+      <c r="J15" s="46"/>
       <c r="O15" s="34"/>
       <c r="P15" s="34"/>
       <c r="Q15" s="34"/>
@@ -1570,97 +1570,97 @@
     <row r="16" spans="1:34" s="23" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="N16" s="32"/>
       <c r="O16" s="28"/>
-      <c r="P16" s="51" t="s">
+      <c r="P16" s="42" t="s">
         <v>102</v>
       </c>
-      <c r="Q16" s="51"/>
-      <c r="R16" s="51"/>
-      <c r="S16" s="51"/>
-      <c r="T16" s="51"/>
-      <c r="U16" s="51"/>
+      <c r="Q16" s="42"/>
+      <c r="R16" s="42"/>
+      <c r="S16" s="42"/>
+      <c r="T16" s="42"/>
+      <c r="U16" s="42"/>
     </row>
     <row r="17" spans="2:21" s="23" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B17" s="52" t="s">
+      <c r="B17" s="43" t="s">
         <v>104</v>
       </c>
-      <c r="C17" s="52"/>
-      <c r="D17" s="52"/>
-      <c r="E17" s="52"/>
-      <c r="F17" s="52"/>
+      <c r="C17" s="43"/>
+      <c r="D17" s="43"/>
+      <c r="E17" s="43"/>
+      <c r="F17" s="43"/>
       <c r="G17" s="41"/>
-      <c r="H17" s="52" t="s">
+      <c r="H17" s="43" t="s">
         <v>107</v>
       </c>
-      <c r="I17" s="52"/>
-      <c r="J17" s="52"/>
-      <c r="K17" s="52"/>
-      <c r="L17" s="52"/>
-      <c r="M17" s="52"/>
+      <c r="I17" s="43"/>
+      <c r="J17" s="43"/>
+      <c r="K17" s="43"/>
+      <c r="L17" s="43"/>
+      <c r="M17" s="43"/>
       <c r="N17" s="31"/>
       <c r="O17" s="31"/>
-      <c r="P17" s="52" t="s">
+      <c r="P17" s="43" t="s">
         <v>110</v>
       </c>
-      <c r="Q17" s="52"/>
-      <c r="R17" s="52"/>
-      <c r="S17" s="52"/>
-      <c r="T17" s="52"/>
-      <c r="U17" s="52"/>
+      <c r="Q17" s="43"/>
+      <c r="R17" s="43"/>
+      <c r="S17" s="43"/>
+      <c r="T17" s="43"/>
+      <c r="U17" s="43"/>
     </row>
     <row r="18" spans="2:21" s="23" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B18" s="53" t="s">
+      <c r="B18" s="44" t="s">
         <v>105</v>
       </c>
-      <c r="C18" s="53"/>
-      <c r="D18" s="53"/>
-      <c r="E18" s="53"/>
-      <c r="F18" s="53"/>
+      <c r="C18" s="44"/>
+      <c r="D18" s="44"/>
+      <c r="E18" s="44"/>
+      <c r="F18" s="44"/>
       <c r="G18" s="33"/>
-      <c r="H18" s="53" t="s">
+      <c r="H18" s="44" t="s">
         <v>108</v>
       </c>
-      <c r="I18" s="53"/>
-      <c r="J18" s="53"/>
-      <c r="K18" s="53"/>
-      <c r="L18" s="53"/>
-      <c r="M18" s="53"/>
+      <c r="I18" s="44"/>
+      <c r="J18" s="44"/>
+      <c r="K18" s="44"/>
+      <c r="L18" s="44"/>
+      <c r="M18" s="44"/>
       <c r="N18" s="33"/>
       <c r="O18" s="33"/>
-      <c r="P18" s="53" t="s">
+      <c r="P18" s="44" t="s">
         <v>111</v>
       </c>
-      <c r="Q18" s="53"/>
-      <c r="R18" s="53"/>
-      <c r="S18" s="53"/>
-      <c r="T18" s="53"/>
-      <c r="U18" s="53"/>
+      <c r="Q18" s="44"/>
+      <c r="R18" s="44"/>
+      <c r="S18" s="44"/>
+      <c r="T18" s="44"/>
+      <c r="U18" s="44"/>
     </row>
     <row r="19" spans="2:21" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="20" spans="2:21" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="21" spans="2:21" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="54" t="s">
+      <c r="B21" s="45" t="s">
         <v>106</v>
       </c>
-      <c r="C21" s="54"/>
-      <c r="D21" s="54"/>
-      <c r="E21" s="54"/>
-      <c r="F21" s="54"/>
-      <c r="H21" s="54" t="s">
+      <c r="C21" s="45"/>
+      <c r="D21" s="45"/>
+      <c r="E21" s="45"/>
+      <c r="F21" s="45"/>
+      <c r="H21" s="45" t="s">
         <v>109</v>
       </c>
-      <c r="I21" s="54"/>
-      <c r="J21" s="54"/>
-      <c r="K21" s="54"/>
-      <c r="L21" s="54"/>
-      <c r="M21" s="54"/>
-      <c r="P21" s="54" t="s">
+      <c r="I21" s="45"/>
+      <c r="J21" s="45"/>
+      <c r="K21" s="45"/>
+      <c r="L21" s="45"/>
+      <c r="M21" s="45"/>
+      <c r="P21" s="45" t="s">
         <v>112</v>
       </c>
-      <c r="Q21" s="54"/>
-      <c r="R21" s="54"/>
-      <c r="S21" s="54"/>
-      <c r="T21" s="54"/>
-      <c r="U21" s="54"/>
+      <c r="Q21" s="45"/>
+      <c r="R21" s="45"/>
+      <c r="S21" s="45"/>
+      <c r="T21" s="45"/>
+      <c r="U21" s="45"/>
     </row>
     <row r="22" spans="2:21" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="23" spans="2:21" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -1785,28 +1785,6 @@
     <row r="142" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="P16:U16"/>
-    <mergeCell ref="P17:U17"/>
-    <mergeCell ref="P18:U18"/>
-    <mergeCell ref="P21:U21"/>
-    <mergeCell ref="B18:F18"/>
-    <mergeCell ref="B21:F21"/>
-    <mergeCell ref="H17:M17"/>
-    <mergeCell ref="H18:M18"/>
-    <mergeCell ref="H21:M21"/>
-    <mergeCell ref="B17:F17"/>
-    <mergeCell ref="A15:J15"/>
-    <mergeCell ref="A5:U5"/>
-    <mergeCell ref="A4:U4"/>
-    <mergeCell ref="U7:U9"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="J8:J9"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="F7:F9"/>
-    <mergeCell ref="G7:G9"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="C7:C9"/>
     <mergeCell ref="A2:G2"/>
     <mergeCell ref="A3:G3"/>
     <mergeCell ref="N7:N9"/>
@@ -1821,6 +1799,28 @@
     <mergeCell ref="H7:H9"/>
     <mergeCell ref="I7:I9"/>
     <mergeCell ref="M7:M9"/>
+    <mergeCell ref="A15:J15"/>
+    <mergeCell ref="A5:U5"/>
+    <mergeCell ref="A4:U4"/>
+    <mergeCell ref="U7:U9"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="F7:F9"/>
+    <mergeCell ref="G7:G9"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="P16:U16"/>
+    <mergeCell ref="P17:U17"/>
+    <mergeCell ref="P18:U18"/>
+    <mergeCell ref="P21:U21"/>
+    <mergeCell ref="B18:F18"/>
+    <mergeCell ref="B21:F21"/>
+    <mergeCell ref="H17:M17"/>
+    <mergeCell ref="H18:M18"/>
+    <mergeCell ref="H21:M21"/>
+    <mergeCell ref="B17:F17"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.118110236220472" right="0.118110236220472" top="0.74803149606299202" bottom="0.74803149606299202" header="0.31496062992126" footer="0.31496062992126"/>
